--- a/Document_DATN/8.1. PrọectTestCaseSprint1.xlsx
+++ b/Document_DATN/8.1. PrọectTestCaseSprint1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Word\DoAnTN_fix\DoAnTN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN\Document_DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC69CD1-3E3D-44FF-9EA3-7B172CD9B9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp kiểm thử" sheetId="1" r:id="rId1"/>
@@ -21,15 +22,58 @@
     <sheet name="Quản lý sinh viên" sheetId="7" r:id="rId7"/>
     <sheet name="Quản lí bài tập và kết quả" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="380">
   <si>
@@ -1280,7 +1324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -1483,7 +1527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1733,6 +1777,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1743,7 +1796,7 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,22 +1930,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="39" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="39" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2024,13 +2076,17 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal_Sheet1" xfId="2"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2062,7 +2118,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2086,6 +2148,124 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5101753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC5DC98-310D-53E9-F95F-627CD57BD139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="1225414"/>
+          <a:ext cx="10372725" cy="5000289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2350,7 +2530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2361,53 +2541,53 @@
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="36.21875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="42" style="49" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" style="42" customWidth="1"/>
     <col min="5" max="5" width="28.77734375" customWidth="1"/>
     <col min="6" max="6" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="13.2" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="16.8">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1"/>
@@ -2511,7 +2691,7 @@
       <c r="B11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="56">
         <f>'Quản lí bài tập và kết quả'!F4</f>
         <v>22</v>
       </c>
@@ -2522,7 +2702,7 @@
     <row r="12" spans="1:6" ht="17.399999999999999" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="46"/>
-      <c r="C12" s="58">
+      <c r="C12" s="57">
         <f>SUM(C5,C11)</f>
         <v>41</v>
       </c>
@@ -2549,7 +2729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2572,15 +2752,15 @@
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="69"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
@@ -2588,15 +2768,15 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="69"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -2618,7 +2798,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
@@ -2647,7 +2827,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
@@ -2659,59 +2839,59 @@
       <c r="E5" s="17"/>
       <c r="F5" s="9"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="69"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="85" t="s">
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="84" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.8">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="91" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="86"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="67.2">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="18" t="s">
         <v>29</v>
       </c>
@@ -2721,21 +2901,21 @@
       <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="87"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="16.8">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="33.6">
       <c r="A10" s="20" t="s">
@@ -2757,7 +2937,7 @@
       <c r="G10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I10" s="25" t="s">
@@ -2785,7 +2965,7 @@
       <c r="G11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I11" s="25" t="s">
@@ -2813,7 +2993,7 @@
       <c r="G12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I12" s="25" t="s">
@@ -2841,7 +3021,7 @@
       <c r="G13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I13" s="25" t="s">
@@ -2869,7 +3049,7 @@
       <c r="G14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I14" s="25" t="s">
@@ -2897,7 +3077,7 @@
       <c r="G15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I15" s="25" t="s">
@@ -2925,7 +3105,7 @@
       <c r="G16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -2953,7 +3133,7 @@
       <c r="G17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I17" s="25" t="s">
@@ -2981,7 +3161,7 @@
       <c r="G18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I18" s="25" t="s">
@@ -2990,18 +3170,18 @@
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="16.8">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:10" ht="108.6" customHeight="1">
       <c r="A20" s="21" t="s">
@@ -3025,7 +3205,7 @@
       <c r="G20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I20" s="25" t="s">
@@ -3055,7 +3235,7 @@
       <c r="G21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I21" s="25" t="s">
@@ -3085,7 +3265,7 @@
       <c r="G22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I22" s="25" t="s">
@@ -3115,7 +3295,7 @@
       <c r="G23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I23" s="25" t="s">
@@ -3145,7 +3325,7 @@
       <c r="G24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I24" s="25" t="s">
@@ -3175,7 +3355,7 @@
       <c r="G25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I25" s="25" t="s">
@@ -3205,7 +3385,7 @@
       <c r="G26" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I26" s="25" t="s">
@@ -3235,7 +3415,7 @@
       <c r="G27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I27" s="25" t="s">
@@ -3265,7 +3445,7 @@
       <c r="G28" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I28" s="25" t="s">
@@ -3295,7 +3475,7 @@
       <c r="G29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I29" s="25" t="s">
@@ -3320,7 +3500,7 @@
     <mergeCell ref="F6:F8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G20:G29 G10:G18">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G20:G29 G10:G18" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3332,7 +3512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="82" workbookViewId="0">
@@ -3354,15 +3534,15 @@
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="69"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
@@ -3370,15 +3550,15 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="69"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -3400,7 +3580,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
@@ -3429,7 +3609,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
@@ -3441,59 +3621,59 @@
       <c r="E5" s="17"/>
       <c r="F5" s="9"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="69"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="85" t="s">
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="84" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.8">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="91" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="86"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="50.4">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="18" t="s">
         <v>29</v>
       </c>
@@ -3503,21 +3683,21 @@
       <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="87"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="16.8">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="33.6">
       <c r="A10" s="20" t="s">
@@ -3539,7 +3719,7 @@
       <c r="G10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I10" s="25" t="s">
@@ -3567,7 +3747,7 @@
       <c r="G11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I11" s="25" t="s">
@@ -3595,7 +3775,7 @@
       <c r="G12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I12" s="25" t="s">
@@ -3623,7 +3803,7 @@
       <c r="G13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I13" s="25" t="s">
@@ -3651,7 +3831,7 @@
       <c r="G14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I14" s="25" t="s">
@@ -3679,7 +3859,7 @@
       <c r="G15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I15" s="25" t="s">
@@ -3687,7 +3867,7 @@
       </c>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="33.6">
+    <row r="16" spans="1:10" ht="50.4">
       <c r="A16" s="20" t="s">
         <v>188</v>
       </c>
@@ -3707,7 +3887,7 @@
       <c r="G16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -3735,7 +3915,7 @@
       <c r="G17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I17" s="25" t="s">
@@ -3763,7 +3943,7 @@
       <c r="G18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I18" s="25" t="s">
@@ -3772,18 +3952,18 @@
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="16.8">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:10" ht="50.4">
       <c r="A20" s="31" t="s">
@@ -3807,7 +3987,7 @@
       <c r="G20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I20" s="25" t="s">
@@ -3837,7 +4017,7 @@
       <c r="G21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I21" s="25" t="s">
@@ -3867,7 +4047,7 @@
       <c r="G22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I22" s="25" t="s">
@@ -3897,7 +4077,7 @@
       <c r="G23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I23" s="25" t="s">
@@ -3925,7 +4105,7 @@
       <c r="G24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I24" s="25" t="s">
@@ -3955,7 +4135,7 @@
       <c r="G25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I25" s="25" t="s">
@@ -3980,7 +4160,7 @@
     <mergeCell ref="G6:I6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G20:G25 G10:G18">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G20:G25 G10:G18" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3990,7 +4170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4008,22 +4188,22 @@
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="32.5546875" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="68" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.4" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="66"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
@@ -4031,15 +4211,15 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="66"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -4061,7 +4241,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="66"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
@@ -4090,7 +4270,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="66"/>
+      <c r="H4" s="65"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
@@ -4102,83 +4282,83 @@
       <c r="E5" s="17"/>
       <c r="F5" s="9"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="66"/>
+      <c r="H5" s="65"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="85" t="s">
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="84" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.8">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="91" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="86"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="50.4">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="64" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="87"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="16.8">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="92.4" customHeight="1">
       <c r="A10" s="20" t="s">
@@ -4202,7 +4382,7 @@
       <c r="G10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I10" s="25" t="s">
@@ -4230,7 +4410,7 @@
       <c r="G11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I11" s="25" t="s">
@@ -4258,7 +4438,7 @@
       <c r="G12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I12" s="25" t="s">
@@ -4286,7 +4466,7 @@
       <c r="G13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I13" s="25" t="s">
@@ -4314,7 +4494,7 @@
       <c r="G14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I14" s="25" t="s">
@@ -4323,18 +4503,18 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="16.8">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" ht="49.2" customHeight="1">
       <c r="A16" s="21" t="s">
@@ -4358,7 +4538,7 @@
       <c r="G16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -4388,7 +4568,7 @@
       <c r="G17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I17" s="25" t="s">
@@ -4418,7 +4598,7 @@
       <c r="G18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I18" s="25" t="s">
@@ -4448,7 +4628,7 @@
       <c r="G19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I19" s="25" t="s">
@@ -4478,7 +4658,7 @@
       <c r="G20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I20" s="25" t="s">
@@ -4508,7 +4688,7 @@
       <c r="G21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I21" s="25" t="s">
@@ -4538,7 +4718,7 @@
       <c r="G22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I22" s="25" t="s">
@@ -4568,7 +4748,7 @@
       <c r="G23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I23" s="25" t="s">
@@ -4598,7 +4778,7 @@
       <c r="G24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I24" s="25" t="s">
@@ -4628,7 +4808,7 @@
       <c r="G25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I25" s="25" t="s">
@@ -4658,7 +4838,7 @@
       <c r="G26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I26" s="25" t="s">
@@ -4688,7 +4868,7 @@
       <c r="G27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="66" t="s">
         <v>376</v>
       </c>
       <c r="I27" s="25" t="s">
@@ -4713,7 +4893,7 @@
     <mergeCell ref="A15:J15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G10:G14 G16:G27">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G10:G14 G16:G27" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4723,14 +4903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4748,15 +4928,15 @@
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="69"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
@@ -4764,15 +4944,15 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="69"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -4794,7 +4974,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
@@ -4823,71 +5003,73 @@
         <v>6</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="69"/>
+      <c r="A5" s="101" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="85" t="s">
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="84" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.8">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="91" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="86"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="50.4">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="18" t="s">
         <v>29</v>
       </c>
@@ -4897,21 +5079,21 @@
       <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="87"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="16.8">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="92.4" customHeight="1">
       <c r="A10" s="20" t="s">
@@ -4933,7 +5115,7 @@
       <c r="G10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I10" s="25" t="s">
@@ -4961,7 +5143,7 @@
       <c r="G11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I11" s="25" t="s">
@@ -4970,18 +5152,18 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="16.8">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" ht="50.4">
       <c r="A13" s="21" t="s">
@@ -5005,7 +5187,7 @@
       <c r="G13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I13" s="25" t="s">
@@ -5035,7 +5217,7 @@
       <c r="G14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I14" s="25" t="s">
@@ -5065,7 +5247,7 @@
       <c r="G15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I15" s="25" t="s">
@@ -5095,7 +5277,7 @@
       <c r="G16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -5104,7 +5286,7 @@
       <c r="J16" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="G7:I7"/>
@@ -5118,9 +5300,10 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G10:G11 G13:G16">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G10:G11 G13:G16" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5130,14 +5313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5156,15 +5339,15 @@
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="69"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
@@ -5172,15 +5355,15 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="69"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -5202,7 +5385,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="69"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
@@ -5231,71 +5414,73 @@
         <v>9</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="69"/>
+      <c r="A5" s="101" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="85" t="s">
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="84" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.8">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="91" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="86"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="50.4">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="18" t="s">
         <v>29</v>
       </c>
@@ -5305,21 +5490,21 @@
       <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="87"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="16.8">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" ht="92.4" customHeight="1">
       <c r="A10" s="20" t="s">
@@ -5341,7 +5526,7 @@
       <c r="G10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I10" s="25" t="s">
@@ -5369,7 +5554,7 @@
       <c r="G11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I11" s="25" t="s">
@@ -5378,18 +5563,18 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="16.8">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" ht="108.6" customHeight="1">
       <c r="A13" s="21" t="s">
@@ -5413,7 +5598,7 @@
       <c r="G13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I13" s="25" t="s">
@@ -5443,7 +5628,7 @@
       <c r="G14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I14" s="25" t="s">
@@ -5451,7 +5636,7 @@
       </c>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:10" ht="33.6">
+    <row r="15" spans="1:10" ht="50.4">
       <c r="A15" s="21" t="s">
         <v>235</v>
       </c>
@@ -5473,7 +5658,7 @@
       <c r="G15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I15" s="25" t="s">
@@ -5503,7 +5688,7 @@
       <c r="G16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -5533,7 +5718,7 @@
       <c r="G17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I17" s="25" t="s">
@@ -5563,7 +5748,7 @@
       <c r="G18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I18" s="25" t="s">
@@ -5593,13 +5778,628 @@
       <c r="G19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="66" t="s">
         <v>377</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>356</v>
       </c>
       <c r="J19" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A12:J12"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G10:G11 G13:G19" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="63" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="36" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.8">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="13">
+        <f>COUNTIF(G1:G50,"Passed")</f>
+        <v>13</v>
+      </c>
+      <c r="C4" s="13">
+        <f>COUNTIF(G1:G50,"Error")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <f>COUNTIF(G1:G50,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <f>COUNTIF(G10:G23,"Blocked")</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <f>SUM(B4,C4,D4)</f>
+        <v>13</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="409.6" customHeight="1">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.8" customHeight="1">
+      <c r="A6" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.8">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="85"/>
+    </row>
+    <row r="8" spans="1:11" ht="33.6">
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="86"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.8">
+      <c r="A9" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="95"/>
+    </row>
+    <row r="10" spans="1:11" ht="92.4" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" ht="50.4">
+      <c r="A11" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.8">
+      <c r="A12" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="1:11" ht="154.19999999999999" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" ht="50.4">
+      <c r="A14" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" ht="33.6">
+      <c r="A15" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="81" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" ht="81" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" ht="33.6">
+      <c r="A18" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" ht="67.2">
+      <c r="A19" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" ht="67.2">
+      <c r="A20" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" ht="50.4">
+      <c r="A21" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" ht="49.2" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" ht="49.2" customHeight="1">
+      <c r="A23" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5618,637 +6418,25 @@
     <mergeCell ref="A12:J12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G10:G11 G13:G19">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G10:G11 G13:G23" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="26.5546875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="64" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>360</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.2">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.8">
-      <c r="A4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13">
-        <f>COUNTIF(G1:G50,"Passed")</f>
-        <v>13</v>
-      </c>
-      <c r="C4" s="13">
-        <f>COUNTIF(G1:G50,"Error")</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <f>COUNTIF(G1:G50,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <f>COUNTIF(G10:G23,"Blocked")</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <f>SUM(B4,C4,D4)</f>
-        <v>13</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="409.5" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.8">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="86"/>
-    </row>
-    <row r="8" spans="1:10" ht="33.6">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="87"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.8">
-      <c r="A9" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
-    </row>
-    <row r="10" spans="1:10" ht="92.4" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" ht="50.4">
-      <c r="A11" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.8">
-      <c r="A12" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
-    </row>
-    <row r="13" spans="1:10" ht="154.19999999999999" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" ht="50.4">
-      <c r="A14" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" ht="33.6">
-      <c r="A15" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" ht="81" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="81" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="33.6">
-      <c r="A18" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="67.2">
-      <c r="A19" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10" ht="67.2">
-      <c r="A20" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="1:10" ht="50.4">
-      <c r="A21" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J21" s="33"/>
-    </row>
-    <row r="22" spans="1:10" ht="49.2" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="63" t="s">
-        <v>378</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J22" s="33"/>
-    </row>
-    <row r="23" spans="1:10" ht="49.2" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="J23" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A12:J12"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G10:G11 G13:G23">
-      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6269,13 +6457,13 @@
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="7"/>
       <c r="H1" s="8"/>
       <c r="I1" s="9"/>
@@ -6285,13 +6473,13 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -6344,83 +6532,85 @@
         <v>22</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" spans="1:10" ht="283.2" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+    <row r="5" spans="1:10" s="51" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:10" ht="406.2" customHeight="1">
+      <c r="A6" s="101" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="16.8" customHeight="1">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="85" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="84" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.8">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="91" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="86"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" ht="67.2">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="18" t="s">
         <v>29</v>
       </c>
@@ -6430,21 +6620,21 @@
       <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="87"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" ht="16.8">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="61.2" customHeight="1">
       <c r="A11" s="20" t="s">
@@ -6531,18 +6721,18 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="16.8">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="142.80000000000001" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -7113,7 +7303,7 @@
       <c r="J33" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A7:A9"/>
@@ -7122,6 +7312,7 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="G8:I8"/>
@@ -7129,7 +7320,7 @@
     <mergeCell ref="A14:J14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G13 G15:G33">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G11:G13 G15:G33" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
